--- a/de20.xlsx
+++ b/de20.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gdrive\HATCOM_Chung chi tin hoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\chtien18.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="38">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -71,30 +71,15 @@
     <t>?</t>
   </si>
   <si>
-    <t xml:space="preserve">E61i </t>
-  </si>
-  <si>
     <t xml:space="preserve">S </t>
   </si>
   <si>
-    <t xml:space="preserve">F500 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">P310 </t>
-  </si>
-  <si>
     <t xml:space="preserve">X </t>
   </si>
   <si>
     <t xml:space="preserve">M </t>
   </si>
   <si>
-    <t xml:space="preserve">W510 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROKR </t>
-  </si>
-  <si>
     <t>8800</t>
   </si>
   <si>
@@ -138,6 +123,24 @@
   </si>
   <si>
     <t>Motorola</t>
+  </si>
+  <si>
+    <t>E61i</t>
+  </si>
+  <si>
+    <t>F500</t>
+  </si>
+  <si>
+    <t>P310</t>
+  </si>
+  <si>
+    <t>W510</t>
+  </si>
+  <si>
+    <t>ROKR</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -275,10 +278,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -311,16 +314,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>503758</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>227533</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>190020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -337,7 +340,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3228975" y="3333750"/>
+          <a:off x="6000750" y="2228850"/>
           <a:ext cx="8533333" cy="3838095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -627,7 +630,7 @@
   <sheetData>
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
@@ -670,7 +673,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -702,10 +705,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="2">
@@ -723,10 +726,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -747,13 +750,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="2">
@@ -774,7 +777,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>11</v>
@@ -795,10 +798,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>11</v>
@@ -819,10 +822,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>11</v>
@@ -843,13 +846,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="2">
@@ -863,35 +866,35 @@
       <c r="J13" s="8"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="F16" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="A16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="F16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -899,7 +902,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C18" s="5">
         <v>0.1</v>
@@ -916,16 +919,16 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C19" s="5">
         <v>0.09</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>12</v>
@@ -936,16 +939,16 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C20" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>12</v>
@@ -956,7 +959,7 @@
     </row>
     <row r="22" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -964,21 +967,21 @@
     </row>
     <row r="23" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B24" s="6">
         <v>19899000</v>
@@ -988,7 +991,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B25" s="6">
         <v>7199000</v>
@@ -998,7 +1001,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="6">
@@ -1008,7 +1011,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="6">
@@ -1018,7 +1021,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -1028,7 +1031,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>

--- a/de20.xlsx
+++ b/de20.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -315,15 +318,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>227533</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>190020</xdr:rowOff>
+      <xdr:colOff>513283</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28095</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -340,7 +343,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6000750" y="2228850"/>
+          <a:off x="6286500" y="85725"/>
           <a:ext cx="8533333" cy="3838095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -618,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,7 +801,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>35</v>
@@ -822,7 +825,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>36</v>

--- a/de20.xlsx
+++ b/de20.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="38">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -59,27 +59,12 @@
     <t>Thành tiền</t>
   </si>
   <si>
-    <t xml:space="preserve">N </t>
-  </si>
-  <si>
-    <t xml:space="preserve">D </t>
-  </si>
-  <si>
     <t xml:space="preserve">? </t>
   </si>
   <si>
     <t>?</t>
   </si>
   <si>
-    <t xml:space="preserve">S </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M </t>
-  </si>
-  <si>
     <t>8800</t>
   </si>
   <si>
@@ -107,9 +92,6 @@
     <t xml:space="preserve">Samsung </t>
   </si>
   <si>
-    <t xml:space="preserve">Motorola </t>
-  </si>
-  <si>
     <t>BẢNG GIÁ:</t>
   </si>
   <si>
@@ -144,6 +126,21 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Nokia</t>
+  </si>
+  <si>
+    <t>Samsung</t>
   </si>
 </sst>
 </file>
@@ -622,7 +619,7 @@
   <dimension ref="A4:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,7 +630,7 @@
   <sheetData>
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
@@ -673,16 +670,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="F6" s="2">
         <v>3</v>
@@ -691,13 +688,13 @@
         <v>20</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -705,13 +702,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="2">
@@ -729,13 +726,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="2">
@@ -753,13 +750,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="2">
@@ -777,13 +774,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="2">
@@ -801,13 +798,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="2">
@@ -825,13 +822,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="2">
@@ -849,13 +846,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="2">
@@ -870,99 +867,99 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="F16" s="10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C18" s="5">
         <v>0.1</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="H18" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C19" s="5">
         <v>0.09</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -970,21 +967,21 @@
     </row>
     <row r="23" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B24" s="6">
         <v>19899000</v>
@@ -994,7 +991,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B25" s="6">
         <v>7199000</v>
@@ -1004,7 +1001,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="6">
@@ -1014,7 +1011,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="6">
@@ -1024,7 +1021,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -1034,7 +1031,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>

--- a/de20.xlsx
+++ b/de20.xlsx
@@ -314,16 +314,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>513283</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>27508</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>28095</xdr:rowOff>
+      <xdr:rowOff>113820</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -340,7 +340,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6286500" y="85725"/>
+          <a:off x="4581525" y="171450"/>
           <a:ext cx="8533333" cy="3838095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
